--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2205_GPSTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2205_GPSTayNinh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="44" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -237,19 +237,58 @@
     <t>Tùng</t>
   </si>
   <si>
-    <t>SE.3.00.---01.120817</t>
-  </si>
-  <si>
-    <t>SE.2.03.---25.111215</t>
-  </si>
-  <si>
-    <t>SE.4.00.---06.200630</t>
-  </si>
-  <si>
     <t>GPS Tây Ninh</t>
   </si>
   <si>
     <t>Còn BH</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>LE4.1.00.---06.200724</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Lỗi connector nguồn</t>
+  </si>
+  <si>
+    <t>Thay connector nguồn</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15959</t>
+  </si>
+  <si>
+    <t>E.2.00.---22.200226</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15050</t>
+  </si>
+  <si>
+    <t>Imei mới: 861881052584480</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624</t>
   </si>
 </sst>
 </file>
@@ -628,30 +667,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -669,6 +684,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -979,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1012,43 +1051,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="73"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="65"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1093,58 +1132,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
@@ -1169,23 +1208,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1195,7 +1234,9 @@
       <c r="B6" s="54">
         <v>44714</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44716</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>56</v>
       </c>
@@ -1204,18 +1245,26 @@
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55" t="s">
-        <v>67</v>
-      </c>
       <c r="L6" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="39"/>
+        <v>61</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>64</v>
@@ -1224,14 +1273,14 @@
         <v>65</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1252,29 +1301,17 @@
       <c r="H7" s="37"/>
       <c r="I7" s="51"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>68</v>
-      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1303,7 +1340,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1332,7 +1369,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1361,7 +1398,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1390,7 +1427,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1419,7 +1456,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1450,7 +1487,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1479,7 +1516,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1508,7 +1545,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1537,7 +1574,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1655,7 +1692,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1687,7 +1724,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1868,7 +1905,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -2124,7 +2161,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2188,7 +2225,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3253,6 +3290,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3264,13 +3308,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3281,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G9"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3314,43 +3351,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="73"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="65"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3395,58 +3432,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
@@ -3471,23 +3508,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3497,7 +3534,9 @@
       <c r="B6" s="54">
         <v>44714</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44716</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -3508,20 +3547,38 @@
       <c r="G6" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
+      <c r="H6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>72</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3536,7 +3593,9 @@
       <c r="B7" s="54">
         <v>44714</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44716</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -3547,20 +3606,36 @@
       <c r="G7" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
+      <c r="K7" s="55" t="s">
+        <v>72</v>
+      </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3573,7 +3648,9 @@
       <c r="B8" s="54">
         <v>44714</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44716</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -3585,19 +3662,35 @@
         <v>63</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="51" t="s">
+        <v>79</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="K8" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3610,7 +3703,9 @@
       <c r="B9" s="54">
         <v>44714</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44716</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -3622,19 +3717,35 @@
         <v>63</v>
       </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="51" t="s">
+        <v>69</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3663,7 +3774,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3692,7 +3803,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3721,7 +3832,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3752,7 +3863,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3781,7 +3892,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3810,7 +3921,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3839,7 +3950,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3957,7 +4068,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3989,7 +4100,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4298,7 +4409,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4426,7 +4537,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4458,7 +4569,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -4490,7 +4601,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5555,6 +5666,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5566,13 +5684,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5583,8 +5694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5616,43 +5727,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="73"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="65"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5697,58 +5808,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -5773,23 +5884,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5799,7 +5910,9 @@
       <c r="B6" s="54">
         <v>44714</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44716</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -5811,19 +5924,35 @@
         <v>63</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="51" t="s">
+        <v>81</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="K6" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5854,7 +5983,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5883,7 +6012,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5912,7 +6041,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5941,7 +6070,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5970,7 +6099,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5999,7 +6128,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6030,7 +6159,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6059,7 +6188,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6088,7 +6217,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6117,7 +6246,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6235,7 +6364,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6704,7 +6833,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6768,7 +6897,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7833,6 +7962,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7844,13 +7980,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7894,43 +8023,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="73"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="65"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -7975,58 +8104,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -8051,23 +8180,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="69"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="61"/>
       <c r="P5" s="75"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="68"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8093,7 +8222,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8124,7 +8253,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8153,7 +8282,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8182,7 +8311,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8211,7 +8340,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8240,7 +8369,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8269,7 +8398,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8300,7 +8429,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8329,7 +8458,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8358,7 +8487,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8387,7 +8516,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9618,13 +9747,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9636,6 +9758,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
